--- a/TGNotebook/Test/Test_01.xlsx
+++ b/TGNotebook/Test/Test_01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_AI\DS2_39_Интеграция в production. Часть 1\TG_boat_ChatGPR_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Proj\LLMT_01\TGNotebook\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB847C9B-63F8-4017-BE16-45D37B2E36D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{85976FF1-658F-4897-867E-64670EE3B7A9}"/>
+    <workbookView xWindow="840" yWindow="-110" windowWidth="23260" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="gpt-3.5-turbo-0613" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'gpt-3.5-turbo-0613'!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>Что про алкоголь?</t>
   </si>
@@ -43,42 +42,18 @@
     <t>А как вас найти?</t>
   </si>
   <si>
-    <t>Чтобы найти нас, вам нужно будет отыскать дом 36-38 по ул. Марата. После этого, зайдите через ворота во двор, пройдите прямо во второй двор, затем поверните налево. Вы  увидите единственную парадную во дворе, находящуюся в левом углу. Поднимитесь до 3 этажа и вы прибудете в Антикафе Мансарда. Наш вход теперь со двора!</t>
-  </si>
-  <si>
-    <t>К сожалению, в нашем Антикафе не разрешается блевать. Мы придерживаемся политики здорового и чистого пространства для наших гостей. Если вам необходимо почувствовать  себя лучше или вам плохо, мы рекомендуем обратиться к нашему персоналу, который окажет вам необходимую помощь и поддержку. Мы постараемся сделать ваше пребывание у нас  максимально комфортным и приятным. Если у вас возникнут еще какие-то вопросы, не стесняйтесь обратиться к нам - мы всегда готовы помочь.</t>
-  </si>
-  <si>
-    <t>Курение в Антикафе Мансарда не разрешено.</t>
-  </si>
-  <si>
-    <t>Вы можете принести и заказать любую еду и безалкогольные напитки без ограничений. Однако, есть ограничения на употребление алкогольных напитков. Если вы хотите  употребить слабоалкогольные напитки (содержание алкоголя до 18%), то действует ограничение в 1 бутылку или банку объемом 0.5 литра. При превышении этого количества будет  дополнительно взиматься сервисный сбор в размере 150 рублей за каждую дополнительную бутылку или банку. Если же речь идет о напитках средней крепости (объемом от 0.75 до  1 литра), то ограничение составляет 1 бутылку на 4 человека. При превышении этого количества также будет взиматься сервисный сбор в размере 300 рублей за каждую  дополнительную бутылку. Употребление крепких алкогольных напитков (содержание алкоголя свыше 18%) требует согласования в индивидуальном порядке. К сожалению,  употребление алкоголя недопустимо для гостей до 18 лет.</t>
-  </si>
-  <si>
     <t>Подробнее про Студенческую скидку, плиз…</t>
   </si>
   <si>
-    <t>Студенческая скидка предоставляет возможность студентам, школьникам и детям старше 5 лет получить скидку 25% на базовый тариф антикафе в любое время работы в залах Лофт  и Тропики. Таким образом, вы сможете провести время в антикафе по выгодной цене, наслаждаясь атмосферой и удобствами, которые предлагает Мансарда. Кроме того,  студенческая скидка суммируется со скидкой «День Рождения», позволяя вам еще больше сэкономить. Мы будем рады видеть вас в нашем антикафе!</t>
-  </si>
-  <si>
     <t>Есть ли у вас скидки?</t>
   </si>
   <si>
-    <t>Конечно, у нас есть скидки! Мы предоставляем несколько видов скидок, которые могут быть интересны для вас. Например, у нас есть скидка "День Рождения", которая действует  за неделю до и неделю после вашего дня рождения на весь счет (для вас и ваших гостей). Также у нас есть скидка "Студенческая" и "Рабочие будни", которые предоставляются  на базовый тариф антикафе в определенное время. Суммировать эти скидки тоже можно. Был бы рад видеть вас в Антикафе Мансарда!</t>
-  </si>
-  <si>
     <t>Что такое Мансарда?</t>
   </si>
   <si>
-    <t>Антикафе Мансарда - это культурное пространство, где вы можете провести время, работать, отдыхать, общаться и развиваться. У нас есть свободный доступ к чаю, кофе,  напиткам и снекам, а также есть игротека, видеотека и библиотека. Мы также предлагаем аренду залов для проведения мероприятий и праздников. В нашем пространстве есть  несколько уникальных залов разной вместимостью, каждый из которых обладает своим особым стилем и атмосферой. Мы находимся по адресу ул. Марата, д. 36-38 в  Санкт-Петербурге. Минимальный чек на человека составляет 120 рублей, а максимальный чек в день - 750 рублей. У нас также действуют различные скидки, включая скидку для  студентов и школьников, скидку на рабочие будни и скидку на день рождения. Мы рады пригласить вас посетить наше пространство Мансарда!</t>
-  </si>
-  <si>
     <t>ты кто?</t>
   </si>
   <si>
-    <t>Я менеджер поддержки в чате компании. Как я могу вам помочь?</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -91,54 +66,12 @@
     <t>Я менеджер поддержки в чате компании. Чем могу помочь? Если у вас есть вопросы о нашем Антикафе Мансарда, я с радостью на них отвечу.</t>
   </si>
   <si>
-    <t>Мансарда - это культурное пространство, которое предлагает несколько услуг. Во-первых, это антикафе, где вы можете насладиться чаем, кофе, напитками и снеками бесплатно  и без ограничений. Во-вторых, это event-площадка, где проводятся лекции, кино, мастер-классы, ярмарки и другие мероприятия. Также в Мансарде есть возможность арендовать  залы для ваших мероприятий и праздников. Кроме того, здесь есть кинозал, где вы можете смотреть кино на диванах и большом экране в кругу своих друзей. И наконец, в  Мансарде есть игротека, видеотека и библиотека в одном месте. Это пространство создано для общения, отдыха, работы и развития. В Мансарде уже открыты шесть залов  различной вместимости, каждый из которых уникален. Так что если вы ищете место, где можно провести время с пользой и удовольствием, Мансарда - отличный выбор!</t>
-  </si>
-  <si>
     <t>answer, temperature =0</t>
   </si>
   <si>
-    <t>Да, у нас есть несколько видов скидок. Во-первых, у нас действует скидка на день рождения. Она действует за неделю до и неделю после вашего дня рождения на весь счет для  вас и ваших гостей. Эта скидка суммируется со скидкой "Студенческая" или "Рабочие будни". Также, у нас есть бесплатный вход для детей до 5 лет, организаторов открытых  мероприятий с участием не менее 10 человек и кураторов студенческих групп не менее 15 человек. Кроме того, у нас есть скидка "Студенческая" и "Рабочие будни", которые  действуют в определенное время и суммируются со скидкой "День рождения". Так что, приходите к нам и получайте скидки на наши услуги!</t>
-  </si>
-  <si>
-    <t>Студенческая скидка в Антикафе Мансарда составляет 25% и действует на базовый тариф антикафе для студентов, школьников и детей старше 5 лет. Эта скидка доступна в любое  время работы антикафе в залах Лофт и Тропики. Кроме того, студенческая скидка суммируется со скидкой "День Рождения", что позволяет вам получить дополнительные  преимущества и сэкономить еще больше. Так что, если вы студент, школьник или ребенок старше 5 лет, вам будет интересно посетить Антикафе Мансарда и воспользоваться  студенческой скидкой.</t>
-  </si>
-  <si>
-    <t>У нас в Антикафе Мансарда можно приносить и заказывать любую еду и безалкогольные напитки без ограничений. Однако, есть некоторые ограничения по употреблению алкогольных  напитков. Мы разрешаем употребление 1 бутылки или банки (0.5л) слабоалкогольного напитка. Если количество превышает указанное, будет взиматься сервисный сбор в размере  150 рублей за каждую дополнительную бутылку. Также, для напитков средней крепости, разрешено употребление 1 бутылки (0.75-1л) на 4 человека. При превышении этого  количества, будет взиматься сервисный сбор в размере 300 рублей за каждую дополнительную бутылку. Употребление крепких алкогольных напитков (свыше 18%) согласовывается в  индивидуальном порядке. Однако, важно отметить, что употребление алкогольных напитков гостями до 18 лет в нашем пространстве не допускается. Мы придерживаемся этих  правил, чтобы обеспечить комфорт и безопасность всех наших посетителей.</t>
-  </si>
-  <si>
-    <t>Да, в Антикафе Мансарда разрешено курить.</t>
-  </si>
-  <si>
-    <t>У нас в Антикафе Мансарда не приветствуется блевать. Мы стремимся создать комфортную и приятную атмосферу для всех посетителей. Если у вас возникнут проблемы со  здоровьем, мы рекомендуем обратиться к нашему персоналу, они всегда готовы помочь и предоставить необходимую поддержку. Мы надеемся, что вы посетите наше Антикафе  Мансарда и оцените его уютную атмосферу и широкий выбор услуг.</t>
-  </si>
-  <si>
-    <t>Добро пожаловать в Антикафе Мансарда! Мы находимся по адресу ул. Марата, д. 36-38. Важно отметить, что теперь вход в Мансарду осуществляется со двора. Чтобы нас найти,  вам нужно сначала отыскать дом 36-38 по ул. Марата. Затем войти через ворота во двор и пройти прямо во второй двор. После этого вам нужно будет повернуть налево и зайти  в единственную парадную во дворе, которая находится в левом углу. Поднимитесь на 3 этаж и вы прибудете в Мансарду. Мы будем рады видеть вас у нас!</t>
-  </si>
-  <si>
     <t>answer, temperature =0.5</t>
   </si>
   <si>
-    <t>Я менеджер поддержки в чате компании. Как могу помочь вам?</t>
-  </si>
-  <si>
-    <t>Мансарда - это культурное пространство, которое предлагает различные услуги и возможности для общения, отдыха, работы и развития. В Мансарде вы можете посетить антикафе,  где чай, кофе, напитки и снеки предоставляются бесплатно и без ограничений. Также в Мансарде есть event-площадка, где проводятся лекции, кино, мастер-классы, ярмарки и  другие мероприятия. Вы также можете арендовать залы для своих мероприятий и праздников. В Мансарде есть кинозал, где вы можете смотреть кино на диванах и большом экране  в кругу своих друзей. И еще, в Мансарде есть игротека, видеотека и библиотека в одном месте. Всего в Мансарде открыты шесть залов различной вместимости, каждый из  которых уникален. Цены на услуги в Мансарде начинаются от 240 рублей в час с человека. Вы также можете принести с собой свою еду и безалкогольные напитки без  ограничений. Если вы хотите употребить алкогольные напитки, есть некоторые ограничения, которые можно уточнить по индивидуальному согласованию. Мансарда находится по  адресу ул. Марата, д. 36-38 в Санкт-Петербурге.</t>
-  </si>
-  <si>
-    <t>Да, у нас есть несколько видов скидок. Первая - скидка "День Рождения", которая действует за неделю до и неделю после вашего дня рождения на весь счет для вас и ваших  гостей. Она суммируется со скидкой "Студенческая" или "Рабочие будни". Также, у нас есть скидка "Студенческая", которая составляет 25% и действует для студентов,  школьников и детей старше 5 лет в любое время работы антикафе. И, наконец, у нас есть скидка "Рабочие будни", которая также составляет 25% и действует с 12:00 до 18:00 с  понедельника по пятницу. Все эти скидки могут быть использованы вместе с скидкой "День Рождения", которая дает дополнительные 10%.</t>
-  </si>
-  <si>
-    <t>Студенческая скидка в Антикафе Мансарда составляет 25% и применяется к базовому тарифу антикафе. То есть, вместо стандартной стоимости 3 рубля в минуту, студенты,  школьники и дети старше 5 лет получают скидку и платят всего 2.25 рубля в минуту. Эта скидка действует в любое время работы антикафе в залах Лофт и Тропики. И самое  главное, она суммируется с другими скидками, включая скидку "День Рождения". Так что, если у вас наступает день рождения, вы можете воспользоваться студенческой скидкой  и получить дополнительные 10% скидки на весь счет. Это отличная возможность сэкономить и провести время с друзьями в уютной атмосфере Антикафе Мансарда.</t>
-  </si>
-  <si>
-    <t>У нас в Антикафе Мансарда употребление алкоголя разрешено, но есть некоторые ограничения. Вы можете принести и заказать любую еду и безалкогольные напитки без  ограничений. Однако, если вы хотите употребить алкогольные напитки, то есть некоторые правила. Допускается употребление 1 бутылки или банки (объемом 0.5 литра)  слабоалкогольного напитка. Если у вас есть большее количество слабоалкогольных напитков, то взимается сервисный сбор в размере 150 рублей за каждую дополнительную  бутылку. Для напитков средней крепости действуют правила: 1 бутылка (объемом 0.75-1 литр) на 4 человека. Если у вас есть большее количество напитков средней крепости, то  взимается сервисный сбор в размере 300 рублей за каждую дополнительную бутылку. Употребление крепких алкогольных напитков (свыше 18%) согласовывается в индивидуальном  порядке. Однако, важно отметить, что употребление алкогольных напитков гостями до 18 лет в нашем пространстве не допускается. Мы приглашаем вас посетить Антикафе  Мансарда и насладиться атмосферой уютного пространства.</t>
-  </si>
-  <si>
-    <t>Вы можете употреблять любую еду и безалкогольные напитки без ограничений. Однако, если вы употребите алкогольные напитки, то есть некоторые ограничения. Например,  допускается употребление слабоалкогольных напитков в количестве одной бутылки или банки объемом 0,5 литра. Если вы принесете больше, вам будет взиматься сервисный сбор в  размере 150 рублей за каждую дополнительную бутылку. Кроме того, для напитков средней крепости допускается употребление одной бутылки объемом от 0,75 до 1 литра на  четырех человек. Если вы принесете больше, вам будет взиматься сервисный сбор в размере 300 рублей за каждую дополнительную бутылку. Однако, употребление крепких  алкогольных напитков (свыше 18%) требует предварительного согласования в индивидуальном порядке. Важно отметить, что лица младше 18 лет не могут употреблять алкогольные  напитки в нашем пространстве.</t>
-  </si>
-  <si>
-    <t>Добро пожаловать в Антикафе Мансарда! Мы находимся по адресу ул. Марата, д. 36-38. Чтобы нас найти, сначала нужно отыскать дом 36-38 по ул. Марата. Затем вам нужно зайти  через ворота во двор и пройти прямо во второй двор. После этого вам нужно будет повернуть налево и зайти в единственную парадную во дворе, которая находится в левом  углу. Поднимитесь на 3 этаж и вы прибудете к нам! Мы ждем вас в Антикафе Мансарда!</t>
-  </si>
-  <si>
     <t>Я - менеджер поддержки в чате Антикафе Мансарда. Какая информацию вы бы хотели узнать? Я готов помочь!</t>
   </si>
   <si>
@@ -161,12 +94,153 @@
   </si>
   <si>
     <t>Вы можете принести и заказать любую еду и безалкогольные напитки без ограничений. Однако, у нас есть правила относительно употребления алкогольных напитков. Для  слабоалкогольных напитков (до 18% крепости) действует ограничение - 1 бутылка или банка (0,5 литра) на человека. Если у вас есть больше, то будет взиматься сервисный  сбор в размере 150 рублей за каждую дополнительную бутылку или банку. Для напитков средней крепости (0,75-1 литра) действует ограничение - 1 бутылка на 4 человека. Если  у вас есть больше, будет взиматься сервисный сбор в размере 300 рублей за каждую дополнительную бутылку. Однако, употребление крепких алкогольных напитков (свыше 18%  крепости) требует предварительного согласования. Пожалуйста, помните, что употребление алкоголя запрещено для гостей до 18 лет. Мы надеемся, что эта информация поможет  вам принять решение о посещении Антикафе Мансарда.</t>
+  </si>
+  <si>
+    <t>цены?</t>
+  </si>
+  <si>
+    <t>скидка студентам?</t>
+  </si>
+  <si>
+    <t>вы все козлы</t>
+  </si>
+  <si>
+    <t>Какие у вас есть игры?</t>
+  </si>
+  <si>
+    <t>What games do you have?</t>
+  </si>
+  <si>
+    <t>¿Qué juegos tienes?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Я администратор антикафе НазваниеКафе, меня зовут Борис. Чем могу помочь?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Стоимость пребывания в нашем антикафе составляет 4 рубля в минуту или 240 рублей в час с гостя. Однако, есть ограничение стоп-чека на сумму 750 рублей на гостя в день. Это означает, что если вы пробыли у нас в течение дня и ваш счет превысил 750 рублей, то вы будете платить только эту сумму. Если же вы пришли в группе из пяти человек и пробыли у нас пять часов, то стоп-чек будет составлять 3750 рублей на всю группу, без учета стоимости минут. 
+Также у нас действует скидка "Студенческая" в размере 15% для студентов, школьников и детей старше 5 лет.
+Приносить свой алкоголь разрешено, но будет взиматься пробковый сбор в размере 300 рублей с бутылки. Однако, если вас четверо или меньше, то сбор не взимается. За каждую дополнительную бутылку на четверых будет взиматься дополнительный пробковый сбор. 
+Если у вас есть еще вопросы, я с удовольствием на них отвечу!</t>
+  </si>
+  <si>
+    <t>Да, у нас есть несколько видов скидок. Для студентов, школьников и детей старше 5 лет действует скидка в любое время работы антикафе. Также есть скидка "Рабочие будни", которая действует в дневное время будних дней. И, конечно, есть скидка "День рождения", которая действует за неделю до и неделю после вашего дня рождения. Все скидки суммируются друг с другом. Если вы хотите узнать больше о наших скидках, приходите к нам в антикафе!</t>
+  </si>
+  <si>
+    <t>Да, у нас есть скидка для студентов. Скидка "Студенческая" составляет 15% и действует для студентов, школьников и детей старше 5 лет. Эта скидка суммируется с другими скидками, такими как "Рабочие будни" и "День рождения". Если вы студент, вы можете воспользоваться этой скидкой при посещении нашего антикафе.</t>
+  </si>
+  <si>
+    <t>В нашем антикафе можно приносить свой алкоголь, но есть ограничения и дополнительные платежи. Если вы приносите одну бутылку на четырех человек, то пробковый сбор не взимается. Однако, если вы приносите более одной бутылки на четырех человек, взимается пробковый сбор в размере 300 рублей за каждую бутылку. Обязательным условием при приношении своего алкоголя является предоставление нами бокалов для вина. У нас нет бара и мы не продаем алкоголь в каком-либо виде.</t>
+  </si>
+  <si>
+    <t>У нас в антикафе НазваниеКафе запрещено курить. У нас есть ограничение на курение в помещении. Мы предоставляем комфортное пространство, где гости могут насладиться чаем, кофе, напитками и снеками, но курение не допускается.</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Мы очень сожалеем, если у вас возникли неприятные ощущения или проблемы в нашем антикафе. Мы всегда стремимся предоставить качественное обслуживание и создать приятную атмосферу для наших гостей. Если у вас есть конкретные жалобы или проблемы, пожалуйста, сообщите нам о них, чтобы мы могли разобраться и решить ситуацию. Ваше мнение очень важно для нас, и мы готовы выслушать вас и принять соответствующие меры. Благодарим вас за обращение и надеемся, что вы по-прежнему останетесь нашими гостями.</t>
+  </si>
+  <si>
+    <t>Вы можете найти нас по адресу Санкт-Петербург, Невский проспект, дом 1. Чтобы попасть к нам, нужно отыскать дом 1 на Невском проспекте, зайти через ворота во двор, пройти прямо во второй двор, затем повернуть налево. Зайдите в единственную парадную во дворе (она будет находиться в левом углу) и поднимитесь до 3 этажа. Прибыли! Также вы можете посетить наш сайт по адресу http://host/ для получения дополнительной информации.</t>
+  </si>
+  <si>
+    <t>У нас в антикафе НазваниеКафе представлено большое разнообразие настольных игр для всех возрастов и вкусов. В нашем ассортименте есть такие игры, как "Каменный век", "Каркассон", "Картографы", "Краниум", "Пандемия", "Звездные войны", "Игра престолов" и многие другие. Всего у нас более 200 игр, так что каждый сможет найти что-то интересное для себя. Если вы хотите узнать о конкретной игре или нуждаетесь в рекомендации, пожалуйста, уточните свои предпочтения, и я с радостью помогу вам выбрать подходящую игру.</t>
+  </si>
+  <si>
+    <t>Thank you for your question! At our cafe, we have a wide variety of games for you to enjoy. Some of the games we offer include "Runebound," "Warhammer: Invasion LCG," "World of WarCraft," "Werewolves," "Unmatched," "Ticket to Ride," "7 Wonders," "Cluedo," "Pandemic," "Coup," "Azul," "Alias," and many more. We have a total of over 200 games available for you to choose from. If you have any specific games in mind, please let us know, and we will check if we have them in our collection. We look forward to welcoming you to our cafe for a fun gaming experience!</t>
+  </si>
+  <si>
+    <t>Tenemos una amplia variedad de juegos disponibles en nuestro anticafe. Algunos de los juegos que ofrecemos incluyen "7 Wonders", "Catan", "Ticket to Ride", "Dixit", "Codenames", "Pandemic", "Exploding Kittens", "Cards Against Humanity" y muchos más. También tenemos juegos de estrategia, juegos de cartas, juegos de mesa clásicos y juegos para niños. ¡Hay algo para todos los gustos! Si estás interesado en un juego en particular, no dudes en preguntar y te proporcionaremos más información.</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Я администратор антикафе НазваниеКафе. Меня зовут Борис. Чем я могу вам помочь?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Спасибо за ваш вопрос. В нашем антикафе цены рассчитываются по базовому тарифу - 4 рубля за 1 минуту пребывания в антикафе. Это означает, что минимальный чек за пребывание у нас составляет 120 рублей, даже если вы пробудете всего одну минуту. Максимальный чек (стоп-чек) составляет 750 рублей на гостя в день. Это означает, что если вы пробыли у нас весь день, то стоимость не будет превышать 750 рублей. 
+Также у нас есть скидка "Студенческая" в размере 15% для студентов, школьников и детей старше 5 лет. 
+В стоимость пребывания включены настольные игры, печенье, чай и кофе. 
+Если у вас больше 6 человек, мы предлагаем вам аренду одного из наших залов. У нас есть несколько залов с разной вместимостью и стоимостью аренды. Например, зал "Романтика" стоит 2600 рублей в час до 12 человек, а зал "Гэтсби" стоит 4500 рублей в час до 36 человек. Также у нас есть залы "Лофт" + "Неон" и "Тропики" с другими ценами и вместимостью. 
+Если вы хотите принести свой алкоголь, мы взимаем пробковый сбор в размере 300 рублей с бутылки. Однако, если у вас четыре человека или меньше, то сбор не взимается. Одна бутылка на четверых бесплатна, а за каждую дополнительную бутылку на четверых взимается 300 рублей. 
+Надеюсь, это помогло вам! Если у вас есть еще вопросы, не стесняйтесь задавать. Будем рады видеть вас в нашем антикафе!</t>
+  </si>
+  <si>
+    <t>Да, у нас есть несколько видов скидок. 
+Первая скидка - "Студенческая", которая составляет 15% и действует для студентов, школьников и детей старше 5 лет. Она применяется в любое время работы антикафе во всех залах.
+Вторая скидка - "Рабочие будни", которая составляет 25%. Она действует в дневное время будних дней с 12:00 до 18:00 с понедельника по пятницу в любом зале пространства при условии приобретения недельного абонемента.
+Третья скидка - "День рождения", которая составляет 10%. Она действует за неделю до и неделю после календарной даты вашего дня рождения на весь счет (для вас и ваших гостей). Эта скидка суммируется со скидкой "Студенческая" или "Рабочие будни".
+Пожалуйста, обратите внимание, что скидки не суммируются с пробковым сбором и не применяются при аренде залов. Если у вас есть еще вопросы, я с удовольствием на них отвечу.</t>
+  </si>
+  <si>
+    <t>Да, у нас есть скидка для студентов. Скидка "Студенческая" составляет 15% и действует для студентов, школьников и детей старше 5 лет. Эта скидка суммируется с другими акциями, такими как скидка "День рождения" или скидка "Рабочие будни". Так что, если вы студент, вы можете воспользоваться этой скидкой и сэкономить на вашем посещении нашего антикафе.</t>
+  </si>
+  <si>
+    <t>У нас в антикафе есть возможность приносить свой алкоголь. Однако, есть некоторые ограничения и дополнительные платежи. Если вы приносите одну бутылку на четырех человек, то пробковый сбор не взимается. Если же вы приносите больше одной бутылки на четверых, то будет взиматься пробковый сбор в размере 300 рублей за каждую бутылку. Также, обязательным условием является предоставление бокалов для вина, если вы приносите свой алкоголь. Пожалуйста, имейте в виду, что у нас нет бара и мы не продаем алкоголь.</t>
+  </si>
+  <si>
+    <t>У нас в антикафе НазваниеКафе курение запрещено. Мы предоставляем комфортное и безопасное пространство для всех наших гостей, поэтому не разрешаем курение внутри помещения. Спасибо за понимание! Если у вас есть еще вопросы, я с радостью на них отвечу.</t>
+  </si>
+  <si>
+    <t>Извините, если у вас возникли какие-то проблемы или недовольство. Мы всегда стремимся предоставить нашим гостям лучший сервис и комфортное пребывание. Если у вас есть конкретные вопросы или проблемы, пожалуйста, уточните их, и мы постараемся помочь вам.</t>
+  </si>
+  <si>
+    <t>Вы можете найти нас по адресу: Санкт-Петербург, Невский проспект, дом 1. Чтобы попасть к нам, нужно пройти через ворота во двор, затем пройти прямо во второй двор и повернуть налево. Вам нужно будет зайти в единственную парадную во дворе, которая находится в левом углу. Поднимитесь на 3 этаж и вы прибудете к нам. Если у вас возникнут сложности с поиском, вы всегда можете позвонить нам по номеру +7(921)777-7777 или посетить наш сайт http://host/ для получения дополнительной информации. Будем рады видеть вас в нашем антикафе!</t>
+  </si>
+  <si>
+    <t>У нас в антикафе "НазваниеКафе" есть широкий выбор настольных игр. В нашем ассортименте есть такие игры, как "Каменный век", "Каркассон", "Карта Сокровищ", "Киклады", "Колонизаторы", "Краниум", "Пандемия", "Активити" и многие другие. Всего у нас более 200 наименований игр. Если у вас есть конкретные предпочтения или интересы, я могу подобрать для вас игру, которая вам понравится.</t>
+  </si>
+  <si>
+    <t>Thank you for your question! At our cafe, we have a wide variety of games for you to enjoy. Some of the games we offer include "Runebound," "Warhammer: Invasion LCG," "World of WarCraft," "Unmatched," "Root," "Pandemic," "Spyfall," "Azul," "Cluedo," "Alias," "Coup," "Fallout," "Jungle Speed," "Loony Quest," "Betrayal at House on the Hill," and many more. We have a total of over 200 games available for you to choose from. Whether you're a fan of strategy, party, or cooperative games, we have something for everyone. Come and join us for a fun-filled gaming experience!</t>
+  </si>
+  <si>
+    <t>Tenemos una amplia variedad de juegos disponibles en nuestro anticafe. Algunos de los juegos que ofrecemos incluyen "7 Wonders", "Alias", "Azul", "Betrayal at House on the Hill", "Coup", "Cluedo", "Fallout", "Fluxx", "Jungle Speed", "Pandemic", "Ticket to Ride", "Codenames", "Carcassonne", "Concept", "King of Tokyo", "Splendor", "Dixit", "Mysterium", "Scythe", "Terraforming Mars" y muchos más. Si tienes alguna preferencia específica o quieres más información sobre algún juego en particular, no dudes en preguntar.</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Я администратор антикафе НазваниеКафе. Чем могу помочь?</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Стоимость пребывания в нашем антикафе составляет 4 рубля в минуту или 240 рублей в час с человека. Однако, есть ограничение, что сумма не должна превышать 750 рублей на одного гостя в день. Это означает, что если вы гость проводите пять часов у нас, мы будем считать стоимость исходя из стоп-чека, который составляет 750 рублей на человека за день. У нас также есть скидка "Студенческая" в размере 15% для студентов, школьников и детей старше 5 лет. Она применяется при расчете, чтобы максимально информировать вас о конечной стоимости. Также включены игры, печенье, чай и кофе в стоимость пребывания. Если у вас возникнут дополнительные вопросы, я готов на них ответить. Будете ли вы посещать наше антикафе уже зависит от вас!</t>
+  </si>
+  <si>
+    <t>Да, у нас есть несколько видов скидок. Для студентов, школьников и детей старше 5 лет действует скидка "Студенческая" в размере 15%. Кроме того, есть скидка "Рабочие будни" на базовый тариф в дневное время будних дней с понедельника по пятницу, которая составляет 25%. Также, если у вас наступает день рождения, мы предоставляем скидку "День рождения" в размере 10% на весь счет за неделю до и после вашей календарной даты. Все эти скидки могут суммироваться друг с другом.</t>
+  </si>
+  <si>
+    <t>Да, у нас действует скидка "Студенческая" в размере 15% для студентов, школьников и детей старше 5 лет. Скидка суммируется с другими акциями, о которых есть информация в нашем документе. Приходите к нам и воспользуйтесь нашей студенческой скидкой!</t>
+  </si>
+  <si>
+    <t>У нас можно приносить свой алкоголь, но есть некоторые ограничения. Если вы приносите слабоалкогольные напитки, то разрешено не более одной бутылки объемом 0,5 л на 4 человека. Если вы приносите напитки средней крепости, то разрешено не более одной бутылки объемом 0,75-1 л на 4 человека. Если у вас есть крепкие алкогольные напитки (свыше 18%), то условия использования обговариваются индивидуально. В случае приноса дополнительных бутылок алкоголя на четверых и больше, будет взиматься пробковый сбор в размере 300 рублей за каждую бутылку. Также, если вы приносите свой алкоголь, мы обязательно предоставим вам бокалы для вина.</t>
+  </si>
+  <si>
+    <t>В нашем антикафе запрещено курить. У нас действует политика без курения. Мы предоставляем комфортную и безопасную атмосферу для всех наших гостей. Если у вас возникнет потребность в курении, мы можем предложить вам воспользоваться специальной зоной на улице.</t>
+  </si>
+  <si>
+    <t>Уважаемый клиент, мы стараемся обеспечить качественное обслуживание и приятную атмосферу для всех посетителей. Если у вас есть какие-либо претензии или вопросы, пожалуйста, уточните, что именно вас не устраивает, и мы постараемся найти решение.</t>
+  </si>
+  <si>
+    <t>Здравствуйте! Чтобы найти наше антикафе "НазваниеКафе", вы можете воспользоваться нашими контактными данными. Мы находимся по адресу Санкт-Петербург, Невский проспект, дом 1. Чтобы найти наше здание, сначала отыщите дом номер 1 на Невском проспекте. Затем войдите через ворота во двор и пройдите прямо во второй двор. Поверните налево и войдите в единственную парадную во дворе, которая находится в левом углу. Поднимитесь на третий этаж, и вы прибыли к нам! 
+Также, вы можете посетить наш сайт по ссылке http://host/ и ознакомиться с подробной информацией о нашем антикафе и услугах. Если у вас возникнут дополнительные вопросы, не стесняйтесь обращаться!</t>
+  </si>
+  <si>
+    <t>У нас в антикафе "НазваниеКафе" есть широкий выбор настольных игр. В нашем ассортименте имеется большое количество игр различных жанров и сложностей. Например, мы предлагаем такие игры, как "Каркассон", "Крафтеры", "Кодовые имена", "Пандемия", "Терра Мистика" и многие другие. Вы можете выбрать игру по своему вкусу и насладиться игровым процессом в нашем антикафе. Если у вас есть предпочтения или интерес к конкретным играм, уточните их, и я с удовольствием посмотрю, есть ли они у нас в наличии. В случае, если вам интересно изучить полный список игр, предоставьте, пожалуйста, более детальное описание или название конкретной игры.</t>
+  </si>
+  <si>
+    <t>Thank you for your question! At our cafe, we offer a wide variety of board games for our guests to enjoy. Here are just a few examples of the games we have:
+- Runebound
+- Steam: Railway Empire
+- Warhammer: Invasion LCG
+- Werewolves
+- World of Warcraft
+- World of Tanks: Rush
+- Unmatched: Robin Hood vs. Bigfoot
+- Unmatched: Red Riding Hood vs. Beowulf
+- Unmatched: Cobble &amp; Fog
+- Unmatched: Battle of Legends, Volume One
+Please note that this is just a small selection of the games we have available. We have many more games for you to discover and enjoy! Feel free to visit us and explore our extensive game collection. We're sure you'll find something you love.</t>
+  </si>
+  <si>
+    <t>Hola, en nuestro anticafe tenemos una amplia variedad de juegos para que puedas disfrutar. Algunos de los juegos disponibles incluyen 7 Wonders, Alias, Azul, Betrayal at House on the Hill, Coup, Cluedo, Cyberpunk Red, Fallout, Fluxx, Jungle Speed, Kuhhandel, Memory, Nexus Ops, Pandemic, Pictureka, Scrabble, Spyfall, Ticket to Ride, Uno, y muchos más. Tenemos más de 100 juegos diferentes para elegir, así que seguro encontrarás algo que te guste. La tarifa para jugar varía según la duración de tu estadía, así que te recomiendo consultar con nuestro personal para obtener más información sobre las tarifas y los juegos disponibles en el momento de tu visita. ¡Esperamos verte pronto en nuestro anticafe!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,18 +251,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -211,9 +279,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,107 +599,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B948C2FE-4F26-4C67-B857-6C22D5963454}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="4" width="43.88671875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="43.90625" style="1" customWidth="1"/>
     <col min="5" max="5" width="55" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -635,50 +708,50 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -686,107 +759,158 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{B948C2FE-4F26-4C67-B857-6C22D5963454}"/>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3288DFA3-69B8-4B95-838A-F2523D4D4451}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="58.21875" customWidth="1"/>
-    <col min="4" max="4" width="49.44140625" customWidth="1"/>
-    <col min="5" max="5" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="58.1796875" customWidth="1"/>
+    <col min="4" max="4" width="49.453125" customWidth="1"/>
+    <col min="5" max="5" width="48.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -794,12 +918,12 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -807,16 +931,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -825,13 +949,13 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
